--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585264455656089</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H2">
-        <v>9.585264455656089</v>
+        <v>35.437706</v>
       </c>
       <c r="I2">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J2">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>0.619498677184446</v>
+        <v>1.426292853565111</v>
       </c>
       <c r="R2">
-        <v>0.619498677184446</v>
+        <v>12.836635682086</v>
       </c>
       <c r="S2">
-        <v>8.449844591319132E-06</v>
+        <v>1.70767085641804E-05</v>
       </c>
       <c r="T2">
-        <v>8.449844591319132E-06</v>
+        <v>1.70767085641804E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585264455656089</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H3">
-        <v>9.585264455656089</v>
+        <v>35.437706</v>
       </c>
       <c r="I3">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J3">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>456.1804768669792</v>
+        <v>577.1658260124632</v>
       </c>
       <c r="R3">
-        <v>456.1804768669792</v>
+        <v>5194.49243411217</v>
       </c>
       <c r="S3">
-        <v>0.006222215280004809</v>
+        <v>0.00691028674748201</v>
       </c>
       <c r="T3">
-        <v>0.006222215280004809</v>
+        <v>0.00691028674748201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.585264455656089</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H4">
-        <v>9.585264455656089</v>
+        <v>35.437706</v>
       </c>
       <c r="I4">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J4">
-        <v>0.01380672194613315</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N4">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q4">
-        <v>555.4371004690502</v>
+        <v>731.2954856583498</v>
       </c>
       <c r="R4">
-        <v>555.4371004690502</v>
+        <v>6581.659370925148</v>
       </c>
       <c r="S4">
-        <v>0.007576056821537023</v>
+        <v>0.008755649200424404</v>
       </c>
       <c r="T4">
-        <v>0.007576056821537023</v>
+        <v>0.008755649200424404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.7464858536684</v>
+        <v>11.81256866666667</v>
       </c>
       <c r="H5">
-        <v>89.7464858536684</v>
+        <v>35.437706</v>
       </c>
       <c r="I5">
-        <v>0.129271840287411</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="J5">
-        <v>0.129271840287411</v>
+        <v>0.01569049050213386</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0646303166751848</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0646303166751848</v>
+        <v>0.15862</v>
       </c>
       <c r="O5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q5">
-        <v>5.800343801207582</v>
+        <v>0.6245698806355555</v>
       </c>
       <c r="R5">
-        <v>5.800343801207582</v>
+        <v>5.62112892572</v>
       </c>
       <c r="S5">
-        <v>7.911559055974027E-05</v>
+        <v>7.477845663265417E-06</v>
       </c>
       <c r="T5">
-        <v>7.911559055974027E-05</v>
+        <v>7.477845663265417E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.7464858536684</v>
+        <v>90.439374</v>
       </c>
       <c r="H6">
-        <v>89.7464858536684</v>
+        <v>271.318122</v>
       </c>
       <c r="I6">
-        <v>0.129271840287411</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J6">
-        <v>0.129271840287411</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.5918509058762</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N6">
-        <v>47.5918509058762</v>
+        <v>0.362231</v>
       </c>
       <c r="O6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q6">
-        <v>4271.201374074114</v>
+        <v>10.919981627798</v>
       </c>
       <c r="R6">
-        <v>4271.201374074114</v>
+        <v>98.279834650182</v>
       </c>
       <c r="S6">
-        <v>0.05825837755325743</v>
+        <v>0.0001307426755438047</v>
       </c>
       <c r="T6">
-        <v>0.05825837755325743</v>
+        <v>0.0001307426755438047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.7464858536684</v>
+        <v>90.439374</v>
       </c>
       <c r="H7">
-        <v>89.7464858536684</v>
+        <v>271.318122</v>
       </c>
       <c r="I7">
-        <v>0.129271840287411</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J7">
-        <v>0.129271840287411</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.946977158392</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N7">
-        <v>57.946977158392</v>
+        <v>146.580945</v>
       </c>
       <c r="O7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q7">
-        <v>5200.537565808474</v>
+        <v>4418.896302042809</v>
       </c>
       <c r="R7">
-        <v>5200.537565808474</v>
+        <v>39770.06671838529</v>
       </c>
       <c r="S7">
-        <v>0.07093434714359388</v>
+        <v>0.05290652907409715</v>
       </c>
       <c r="T7">
-        <v>0.07093434714359388</v>
+        <v>0.05290652907409716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>361.745799061224</v>
+        <v>90.439374</v>
       </c>
       <c r="H8">
-        <v>361.745799061224</v>
+        <v>271.318122</v>
       </c>
       <c r="I8">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J8">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0646303166751848</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N8">
-        <v>0.0646303166751848</v>
+        <v>185.724758</v>
       </c>
       <c r="O8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q8">
-        <v>23.37974554924467</v>
+        <v>5598.943616607165</v>
       </c>
       <c r="R8">
-        <v>23.37974554924467</v>
+        <v>50390.49254946448</v>
       </c>
       <c r="S8">
-        <v>0.0003188952999440928</v>
+        <v>0.06703499086396707</v>
       </c>
       <c r="T8">
-        <v>0.0003188952999440928</v>
+        <v>0.06703499086396708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>361.745799061224</v>
+        <v>90.439374</v>
       </c>
       <c r="H9">
-        <v>361.745799061224</v>
+        <v>271.318122</v>
       </c>
       <c r="I9">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865696</v>
       </c>
       <c r="J9">
-        <v>0.521062688038085</v>
+        <v>0.1201295144865697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>47.5918509058762</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N9">
-        <v>47.5918509058762</v>
+        <v>0.15862</v>
       </c>
       <c r="O9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q9">
-        <v>17216.15213474882</v>
+        <v>4.78183116796</v>
       </c>
       <c r="R9">
-        <v>17216.15213474882</v>
+        <v>43.03648051164001</v>
       </c>
       <c r="S9">
-        <v>0.2348250534775914</v>
+        <v>5.725187296161375E-05</v>
       </c>
       <c r="T9">
-        <v>0.2348250534775914</v>
+        <v>5.725187296161375E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>361.745799061224</v>
+        <v>381.646276</v>
       </c>
       <c r="H10">
-        <v>361.745799061224</v>
+        <v>1144.938828</v>
       </c>
       <c r="I10">
-        <v>0.521062688038085</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J10">
-        <v>0.521062688038085</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.946977158392</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N10">
-        <v>57.946977158392</v>
+        <v>0.362231</v>
       </c>
       <c r="O10">
-        <v>0.5487223434421992</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P10">
-        <v>0.5487223434421992</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q10">
-        <v>20962.07555534501</v>
+        <v>46.08137073391866</v>
       </c>
       <c r="R10">
-        <v>20962.07555534501</v>
+        <v>414.732336605268</v>
       </c>
       <c r="S10">
-        <v>0.2859187392605496</v>
+        <v>0.0005517226958644069</v>
       </c>
       <c r="T10">
-        <v>0.2859187392605496</v>
+        <v>0.0005517226958644069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>230.999468053718</v>
+        <v>381.646276</v>
       </c>
       <c r="H11">
-        <v>230.999468053718</v>
+        <v>1144.938828</v>
       </c>
       <c r="I11">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J11">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0646303166751848</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N11">
-        <v>0.0646303166751848</v>
+        <v>146.580945</v>
       </c>
       <c r="O11">
-        <v>0.0006120094707698289</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P11">
-        <v>0.0006120094707698289</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q11">
-        <v>14.92956877211103</v>
+        <v>18647.35726393694</v>
       </c>
       <c r="R11">
-        <v>14.92956877211103</v>
+        <v>167826.2153754325</v>
       </c>
       <c r="S11">
-        <v>0.0002036364896097905</v>
+        <v>0.2232609416028787</v>
       </c>
       <c r="T11">
-        <v>0.0002036364896097905</v>
+        <v>0.2232609416028787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>230.999468053718</v>
+        <v>381.646276</v>
       </c>
       <c r="H12">
-        <v>230.999468053718</v>
+        <v>1144.938828</v>
       </c>
       <c r="I12">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J12">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.5918509058762</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N12">
-        <v>47.5918509058762</v>
+        <v>185.724758</v>
       </c>
       <c r="O12">
-        <v>0.4506656470870311</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P12">
-        <v>0.4506656470870311</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q12">
-        <v>10993.69224294926</v>
+        <v>23627.0540839004</v>
       </c>
       <c r="R12">
-        <v>10993.69224294926</v>
+        <v>212643.4867551037</v>
       </c>
       <c r="S12">
-        <v>0.1499518794130594</v>
+        <v>0.2828818189843624</v>
       </c>
       <c r="T12">
-        <v>0.1499518794130594</v>
+        <v>0.2828818189843624</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>230.999468053718</v>
+        <v>381.646276</v>
       </c>
       <c r="H13">
-        <v>230.999468053718</v>
+        <v>1144.938828</v>
       </c>
       <c r="I13">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="J13">
-        <v>0.3327342130075897</v>
+        <v>0.5069360811971936</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>57.946977158392</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N13">
-        <v>57.946977158392</v>
+        <v>0.15862</v>
       </c>
       <c r="O13">
-        <v>0.5487223434421992</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P13">
-        <v>0.5487223434421992</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q13">
-        <v>13385.7208989095</v>
+        <v>20.17891076637333</v>
       </c>
       <c r="R13">
-        <v>13385.7208989095</v>
+        <v>181.61019689736</v>
       </c>
       <c r="S13">
-        <v>0.1825786971049205</v>
+        <v>0.0002415979140880053</v>
       </c>
       <c r="T13">
-        <v>0.1825786971049205</v>
+        <v>0.0002415979140880053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.16919779270872</v>
+        <v>266.141622</v>
       </c>
       <c r="H14">
-        <v>2.16919779270872</v>
+        <v>798.4248660000001</v>
       </c>
       <c r="I14">
-        <v>0.003124536720781075</v>
+        <v>0.3535126618139589</v>
       </c>
       <c r="J14">
-        <v>0.003124536720781075</v>
+        <v>0.3535126618139589</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N14">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O14">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P14">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q14">
-        <v>0.1401959402738765</v>
+        <v>32.134915292894</v>
       </c>
       <c r="R14">
-        <v>0.1401959402738765</v>
+        <v>289.214237636046</v>
       </c>
       <c r="S14">
-        <v>1.912246064886122E-06</v>
+        <v>0.0003847446769572723</v>
       </c>
       <c r="T14">
-        <v>1.912246064886122E-06</v>
+        <v>0.0003847446769572722</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.16919779270872</v>
+        <v>266.141622</v>
       </c>
       <c r="H15">
-        <v>2.16919779270872</v>
+        <v>798.4248660000001</v>
       </c>
       <c r="I15">
-        <v>0.003124536720781075</v>
+        <v>0.3535126618139589</v>
       </c>
       <c r="J15">
-        <v>0.003124536720781075</v>
+        <v>0.3535126618139589</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N15">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O15">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P15">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q15">
-        <v>103.2361379359491</v>
+        <v>13003.76348553093</v>
       </c>
       <c r="R15">
-        <v>103.2361379359491</v>
+        <v>117033.8713697784</v>
       </c>
       <c r="S15">
-        <v>0.001408121363117993</v>
+        <v>0.1556913636108359</v>
       </c>
       <c r="T15">
-        <v>0.001408121363117993</v>
+        <v>0.1556913636108359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.16919779270872</v>
+        <v>266.141622</v>
       </c>
       <c r="H16">
-        <v>2.16919779270872</v>
+        <v>798.4248660000001</v>
       </c>
       <c r="I16">
-        <v>0.003124536720781075</v>
+        <v>0.3535126618139589</v>
       </c>
       <c r="J16">
-        <v>0.003124536720781075</v>
+        <v>0.3535126618139589</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N16">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O16">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P16">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q16">
-        <v>125.6984549461265</v>
+        <v>16476.36277989249</v>
       </c>
       <c r="R16">
-        <v>125.6984549461265</v>
+        <v>148287.2650190324</v>
       </c>
       <c r="S16">
-        <v>0.001714503111598196</v>
+        <v>0.1972680748463759</v>
       </c>
       <c r="T16">
-        <v>0.001714503111598196</v>
+        <v>0.1972680748463758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>266.141622</v>
+      </c>
+      <c r="H17">
+        <v>798.4248660000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="J17">
+        <v>0.3535126618139589</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.15862</v>
+      </c>
+      <c r="O17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q17">
+        <v>14.07179469388</v>
+      </c>
+      <c r="R17">
+        <v>126.64615224492</v>
+      </c>
+      <c r="S17">
+        <v>0.0001684786797898649</v>
+      </c>
+      <c r="T17">
+        <v>0.0001684786797898648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.809069</v>
+      </c>
+      <c r="H18">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J18">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.362231</v>
+      </c>
+      <c r="O18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q18">
+        <v>0.3391772909796666</v>
+      </c>
+      <c r="R18">
+        <v>3.052595618817</v>
+      </c>
+      <c r="S18">
+        <v>4.060899369418014E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.060899369418014E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.809069</v>
+      </c>
+      <c r="H19">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J19">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N19">
+        <v>146.580945</v>
+      </c>
+      <c r="O19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q19">
+        <v>137.251996196735</v>
+      </c>
+      <c r="R19">
+        <v>1235.267965770615</v>
+      </c>
+      <c r="S19">
+        <v>0.001643289688401039</v>
+      </c>
+      <c r="T19">
+        <v>0.001643289688401039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.809069</v>
+      </c>
+      <c r="H20">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J20">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N20">
+        <v>185.724758</v>
+      </c>
+      <c r="O20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q20">
+        <v>173.9045534101006</v>
+      </c>
+      <c r="R20">
+        <v>1565.140980690906</v>
+      </c>
+      <c r="S20">
+        <v>0.002082123155244895</v>
+      </c>
+      <c r="T20">
+        <v>0.002082123155244895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.809069</v>
+      </c>
+      <c r="H21">
+        <v>8.427206999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.003731252000144026</v>
+      </c>
+      <c r="J21">
+        <v>0.003731252000144027</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.15862</v>
+      </c>
+      <c r="O21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q21">
+        <v>0.1485248415933333</v>
+      </c>
+      <c r="R21">
+        <v>1.33672357434</v>
+      </c>
+      <c r="S21">
+        <v>1.778257128675032E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.778257128675032E-06</v>
       </c>
     </row>
   </sheetData>
